--- a/biology/Botanique/Œillet_sanguin/Œillet_sanguin.xlsx
+++ b/biology/Botanique/Œillet_sanguin/Œillet_sanguin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92illet_sanguin</t>
+          <t>Œillet_sanguin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dianthus cruentus
 L'œillet sanguin (Dianthus cruentus) est une espèce de plantes du genre Dianthus et de la famille des Caryophyllaceae. On le trouve en Albanie, en Bulgarie, dans les pays de l'ex-Yougoslavie, au Nord de la Grèce et en Turquie d'Europe.
